--- a/examples/eop_config/spreadsheets/example-timetable_school.xlsx
+++ b/examples/eop_config/spreadsheets/example-timetable_school.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Programming\cpp\entity_organisation_program\examples_sheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Programming\cpp\entity_organisation_program\examples\eop_config\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81CD9C7C-5025-48D9-B72B-1546D4587BC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CFB13CD-9AB9-4CBF-8DD2-446A12CDE742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="855" activeTab="3" xr2:uid="{41FF037C-E733-4109-8018-268BF2C7ACEB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="855" activeTab="1" xr2:uid="{41FF037C-E733-4109-8018-268BF2C7ACEB}"/>
   </bookViews>
   <sheets>
     <sheet name="district" sheetId="1" r:id="rId1"/>
@@ -1594,13 +1594,13 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2055,100 +2055,100 @@
     </row>
     <row r="2" spans="1:57" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX2" s="23" t="s">
         <v>2</v>
@@ -2163,100 +2163,100 @@
     </row>
     <row r="3" spans="1:57" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX3" s="23"/>
       <c r="AY3" s="23"/>
@@ -2269,100 +2269,100 @@
     </row>
     <row r="4" spans="1:57" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX4" s="23"/>
       <c r="AY4" s="23"/>
@@ -2375,76 +2375,76 @@
     </row>
     <row r="7" spans="1:57" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G7" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H7" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K7" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L7" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M7" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P7" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q7" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R7" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U7" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V7" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W7" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z7" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AA7" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AB7" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE7" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF7" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG7" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ7" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AK7" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL7" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX7" s="23" t="s">
         <v>3</v>
@@ -2459,76 +2459,76 @@
     </row>
     <row r="8" spans="1:57" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G8" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H8" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K8" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L8" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M8" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P8" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q8" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R8" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U8" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V8" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W8" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z8" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AA8" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AB8" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE8" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF8" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG8" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ8" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AK8" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL8" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX8" s="23"/>
       <c r="AY8" s="23"/>
@@ -2541,76 +2541,76 @@
     </row>
     <row r="9" spans="1:57" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G9" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H9" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K9" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L9" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M9" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P9" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q9" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R9" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U9" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V9" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W9" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z9" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AA9" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AB9" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE9" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF9" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG9" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ9" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AK9" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL9" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX9" s="23"/>
       <c r="AY9" s="23"/>
@@ -2623,94 +2623,94 @@
     </row>
     <row r="12" spans="1:57" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F12" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G12" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H12" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K12" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L12" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M12" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P12" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R12" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U12" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="V12" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="W12" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Z12" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AA12" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AB12" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE12" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF12" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG12" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ12" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK12" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL12" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO12" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP12" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ12" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AT12" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AU12" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AV12" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AX12" s="23" t="s">
         <v>4</v>
@@ -2725,94 +2725,94 @@
     </row>
     <row r="13" spans="1:57" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B13" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C13" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F13" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G13" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H13" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K13" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L13" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M13" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P13" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q13" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R13" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U13" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="V13" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="W13" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Z13" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AA13" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AB13" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE13" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF13" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG13" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ13" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK13" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL13" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO13" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP13" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ13" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AT13" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AU13" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AV13" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AX13" s="23"/>
       <c r="AY13" s="23"/>
@@ -2825,94 +2825,94 @@
     </row>
     <row r="14" spans="1:57" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B14" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C14" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F14" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G14" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H14" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K14" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L14" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M14" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P14" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q14" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R14" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U14" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="V14" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="W14" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Z14" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AA14" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AB14" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE14" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF14" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG14" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ14" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK14" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL14" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO14" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP14" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ14" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AT14" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AU14" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AV14" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AX14" s="23"/>
       <c r="AY14" s="23"/>
@@ -2925,58 +2925,58 @@
     </row>
     <row r="17" spans="1:57" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F17" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G17" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H17" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K17" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L17" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M17" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P17" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q17" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R17" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="U17" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="V17" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="W17" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z17" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA17" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AB17" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AX17" s="23" t="s">
         <v>5</v>
@@ -2991,58 +2991,58 @@
     </row>
     <row r="18" spans="1:57" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B18" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C18" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F18" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G18" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H18" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K18" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L18" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M18" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P18" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q18" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R18" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="U18" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="V18" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="W18" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z18" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA18" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AB18" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AX18" s="23"/>
       <c r="AY18" s="23"/>
@@ -3055,58 +3055,58 @@
     </row>
     <row r="19" spans="1:57" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B19" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C19" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F19" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G19" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H19" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K19" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L19" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M19" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P19" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q19" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R19" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="U19" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="V19" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="W19" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z19" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA19" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AB19" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AX19" s="23"/>
       <c r="AY19" s="23"/>
@@ -3139,7 +3139,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E4E41F3-4A4C-475D-99C5-FF7DC7D3C49B}">
   <dimension ref="A1:AG196"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="AG1" sqref="AG1"/>
     </sheetView>
   </sheetViews>
@@ -3153,152 +3153,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
-      <c r="W1" s="25"/>
-      <c r="X1" s="25"/>
-      <c r="Y1" s="25"/>
-      <c r="Z1" s="25"/>
-      <c r="AA1" s="25"/>
-      <c r="AB1" s="25"/>
-      <c r="AC1" s="25"/>
-      <c r="AD1" s="25"/>
-      <c r="AE1" s="25"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26"/>
+      <c r="AD1" s="26"/>
+      <c r="AE1" s="26"/>
       <c r="AF1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="AG1" s="4"/>
     </row>
     <row r="2" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="25"/>
-      <c r="W2" s="25"/>
-      <c r="X2" s="25"/>
-      <c r="Y2" s="25"/>
-      <c r="Z2" s="25"/>
-      <c r="AA2" s="25"/>
-      <c r="AB2" s="25"/>
-      <c r="AC2" s="25"/>
-      <c r="AD2" s="25"/>
-      <c r="AE2" s="25"/>
+      <c r="D2" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="26"/>
       <c r="AF2" s="4"/>
       <c r="AG2" s="4"/>
     </row>
     <row r="3" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24" t="s">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24" t="s">
+      <c r="G3" s="25"/>
+      <c r="H3" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24" t="s">
+      <c r="I3" s="25"/>
+      <c r="J3" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24" t="s">
+      <c r="K3" s="25"/>
+      <c r="L3" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24" t="s">
+      <c r="M3" s="25"/>
+      <c r="N3" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24" t="s">
+      <c r="O3" s="25"/>
+      <c r="P3" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="26" t="s">
+      <c r="Q3" s="25"/>
+      <c r="R3" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="S3" s="26"/>
-      <c r="T3" s="24" t="s">
+      <c r="S3" s="24"/>
+      <c r="T3" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="U3" s="24"/>
-      <c r="V3" s="24" t="s">
+      <c r="U3" s="25"/>
+      <c r="V3" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="W3" s="24"/>
-      <c r="X3" s="24" t="s">
+      <c r="W3" s="25"/>
+      <c r="X3" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="Y3" s="24"/>
-      <c r="Z3" s="24" t="s">
+      <c r="Y3" s="25"/>
+      <c r="Z3" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="AA3" s="24"/>
-      <c r="AB3" s="24" t="s">
+      <c r="AA3" s="25"/>
+      <c r="AB3" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="AC3" s="24"/>
-      <c r="AD3" s="24" t="s">
+      <c r="AC3" s="25"/>
+      <c r="AD3" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="AE3" s="24"/>
+      <c r="AE3" s="25"/>
     </row>
     <row r="4" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
       <c r="D4" s="5" t="s">
         <v>25</v>
       </c>
@@ -15265,6 +15265,7 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="AD3:AE3"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="R3:S3"/>
@@ -15283,7 +15284,6 @@
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -15307,12 +15307,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
+      <c r="A1" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
       <c r="E1" s="6" t="s">
         <v>1</v>
       </c>
@@ -15521,7 +15521,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B013458-3FFF-4982-A44F-299B41089B86}">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
@@ -15541,18 +15541,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>234</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
       <c r="K1" s="6" t="s">
         <v>1</v>
       </c>
@@ -16072,149 +16072,149 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>267</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
-      <c r="W1" s="25"/>
-      <c r="X1" s="25"/>
-      <c r="Y1" s="25"/>
-      <c r="Z1" s="25"/>
-      <c r="AA1" s="25"/>
-      <c r="AB1" s="25"/>
-      <c r="AC1" s="25"/>
-      <c r="AD1" s="25"/>
-      <c r="AE1" s="25"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26"/>
+      <c r="AD1" s="26"/>
+      <c r="AE1" s="26"/>
       <c r="AF1" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:32" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="26" t="s">
         <v>268</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="26" t="s">
         <v>228</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="26" t="s">
         <v>269</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="26" t="s">
         <v>270</v>
       </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="25"/>
-      <c r="W2" s="25"/>
-      <c r="X2" s="25"/>
-      <c r="Y2" s="25"/>
-      <c r="Z2" s="25"/>
-      <c r="AA2" s="25"/>
-      <c r="AB2" s="25"/>
-      <c r="AC2" s="25"/>
-      <c r="AD2" s="25"/>
-      <c r="AE2" s="25"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="26"/>
     </row>
     <row r="3" spans="1:32" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24" t="s">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24" t="s">
+      <c r="G3" s="25"/>
+      <c r="H3" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24" t="s">
+      <c r="I3" s="25"/>
+      <c r="J3" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24" t="s">
+      <c r="K3" s="25"/>
+      <c r="L3" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24" t="s">
+      <c r="M3" s="25"/>
+      <c r="N3" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24" t="s">
+      <c r="O3" s="25"/>
+      <c r="P3" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24" t="s">
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="S3" s="24"/>
-      <c r="T3" s="24" t="s">
+      <c r="S3" s="25"/>
+      <c r="T3" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="U3" s="24"/>
-      <c r="V3" s="24" t="s">
+      <c r="U3" s="25"/>
+      <c r="V3" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="W3" s="24"/>
-      <c r="X3" s="24" t="s">
+      <c r="W3" s="25"/>
+      <c r="X3" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="Y3" s="24"/>
-      <c r="Z3" s="24" t="s">
+      <c r="Y3" s="25"/>
+      <c r="Z3" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="AA3" s="24"/>
-      <c r="AB3" s="24" t="s">
+      <c r="AA3" s="25"/>
+      <c r="AB3" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="AC3" s="24"/>
-      <c r="AD3" s="24" t="s">
+      <c r="AC3" s="25"/>
+      <c r="AD3" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="AE3" s="24"/>
+      <c r="AE3" s="25"/>
     </row>
     <row r="4" spans="1:32" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
       <c r="D4" s="6" t="s">
         <v>271</v>
       </c>
@@ -16302,7 +16302,7 @@
     </row>
     <row r="5" spans="1:32" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>273</v>
@@ -16349,7 +16349,7 @@
     </row>
     <row r="7" spans="1:32" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7" s="17" t="s">
         <v>275</v>
@@ -16394,7 +16394,7 @@
     </row>
     <row r="8" spans="1:32" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8" s="17" t="s">
         <v>277</v>
@@ -16439,7 +16439,7 @@
     </row>
     <row r="9" spans="1:32" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9" s="17" t="s">
         <v>278</v>
@@ -16484,7 +16484,7 @@
     </row>
     <row r="10" spans="1:32" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B10" s="17" t="s">
         <v>279</v>
@@ -16561,7 +16561,7 @@
     </row>
     <row r="12" spans="1:32" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B12" s="17" t="s">
         <v>280</v>
@@ -16606,7 +16606,7 @@
     </row>
     <row r="13" spans="1:32" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B13" s="17" t="s">
         <v>282</v>
@@ -16651,7 +16651,7 @@
     </row>
     <row r="14" spans="1:32" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B14" s="17" t="s">
         <v>283</v>
@@ -16696,7 +16696,7 @@
     </row>
     <row r="15" spans="1:32" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B15" s="17" t="s">
         <v>284</v>
@@ -16745,7 +16745,7 @@
     </row>
     <row r="17" spans="1:31" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B17" s="17" t="s">
         <v>285</v>
@@ -16792,7 +16792,7 @@
     </row>
     <row r="18" spans="1:31" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B18" s="17" t="s">
         <v>287</v>
@@ -16839,7 +16839,7 @@
     </row>
     <row r="19" spans="1:31" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B19" s="17" t="s">
         <v>288</v>
@@ -16886,7 +16886,7 @@
     </row>
     <row r="20" spans="1:31" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B20" s="17" t="s">
         <v>289</v>
@@ -16933,7 +16933,7 @@
     </row>
     <row r="21" spans="1:31" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B21" s="17" t="s">
         <v>290</v>
@@ -16980,7 +16980,7 @@
     </row>
     <row r="22" spans="1:31" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B22" s="17" t="s">
         <v>291</v>
@@ -17027,7 +17027,7 @@
     </row>
     <row r="23" spans="1:31" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B23" s="17" t="s">
         <v>292</v>
@@ -17074,7 +17074,7 @@
     </row>
     <row r="24" spans="1:31" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B24" s="17" t="s">
         <v>293</v>
@@ -17125,7 +17125,7 @@
     </row>
     <row r="26" spans="1:31" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B26" s="17" t="s">
         <v>294</v>
@@ -17166,7 +17166,7 @@
     </row>
     <row r="27" spans="1:31" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B27" s="17" t="s">
         <v>296</v>
@@ -17239,7 +17239,7 @@
     </row>
     <row r="29" spans="1:31" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B29" s="17" t="s">
         <v>298</v>
@@ -17288,7 +17288,7 @@
     </row>
     <row r="30" spans="1:31" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B30" s="17" t="s">
         <v>303</v>
@@ -17337,7 +17337,7 @@
     </row>
     <row r="31" spans="1:31" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B31" s="17" t="s">
         <v>304</v>
@@ -17386,7 +17386,7 @@
     </row>
     <row r="32" spans="1:31" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B32" s="17" t="s">
         <v>305</v>
@@ -17435,7 +17435,7 @@
     </row>
     <row r="33" spans="1:31" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B33" s="17" t="s">
         <v>306</v>
@@ -17484,7 +17484,7 @@
     </row>
     <row r="34" spans="1:31" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B34" s="17" t="s">
         <v>307</v>
@@ -17594,6 +17594,7 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="AD3:AE3"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="R3:S3"/>
@@ -17612,7 +17613,6 @@
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
